--- a/Screperino/File_Input/MMSI/MMSI.xlsx
+++ b/Screperino/File_Input/MMSI/MMSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\security\Documents\Codice\Python\Screperino\File_Input\MMSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amministrazione\Desktop\Script\Sviluppo\Screperino\File_Input\MMSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5072B0-AD92-44C4-B07D-AAA1CE882408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCB9FF6-59C5-41A2-B435-D8463BD2C2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28710" yWindow="-16230" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="6" r:id="rId1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="440">
   <si>
     <t>Name of Ship</t>
   </si>
@@ -1317,6 +1312,45 @@
   </si>
   <si>
     <t>IMO</t>
+  </si>
+  <si>
+    <t>CORSICA MARINA SECONDA</t>
+  </si>
+  <si>
+    <t>SARDINIA VERA</t>
+  </si>
+  <si>
+    <t>GNV ARIES</t>
+  </si>
+  <si>
+    <t>LA SUPERBA</t>
+  </si>
+  <si>
+    <t>REGINA SEAWAYS</t>
+  </si>
+  <si>
+    <t>CIUDAD DE ALCUDIA</t>
+  </si>
+  <si>
+    <t>CIUDAD AUTONOMA MELILLA</t>
+  </si>
+  <si>
+    <t>CORFU'</t>
+  </si>
+  <si>
+    <t>MOBY CORSE</t>
+  </si>
+  <si>
+    <t>MOBY VINCENT</t>
+  </si>
+  <si>
+    <t>BITHIA</t>
+  </si>
+  <si>
+    <t>ALGECIRAS JET</t>
+  </si>
+  <si>
+    <t>CADENA 3</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1383,15 +1417,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1871,24 +1939,24 @@
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:E566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E486" sqref="E486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>426</v>
       </c>
@@ -1899,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9441130</v>
       </c>
@@ -1910,7 +1978,7 @@
         <v>224402000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1045136</v>
       </c>
@@ -1921,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9170183</v>
       </c>
@@ -1932,7 +2000,7 @@
         <v>224704000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9441142</v>
       </c>
@@ -1943,7 +2011,7 @@
         <v>210567000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8921937</v>
       </c>
@@ -1954,7 +2022,7 @@
         <v>209563000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9967196</v>
       </c>
@@ -1965,7 +2033,7 @@
         <v>224672000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9188881</v>
       </c>
@@ -1976,7 +2044,7 @@
         <v>209122000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9398890</v>
       </c>
@@ -1987,7 +2055,7 @@
         <v>224692000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9019054</v>
       </c>
@@ -1998,7 +2066,7 @@
         <v>210133000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9858591</v>
       </c>
@@ -2009,7 +2077,7 @@
         <v>225988980</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9842774</v>
       </c>
@@ -2020,7 +2088,7 @@
         <v>225987874</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9844239</v>
       </c>
@@ -2031,7 +2099,7 @@
         <v>225988274</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9855288</v>
       </c>
@@ -2042,7 +2110,7 @@
         <v>225988638</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9863637</v>
       </c>
@@ -2053,7 +2121,7 @@
         <v>210049000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9498743</v>
       </c>
@@ -2064,7 +2132,7 @@
         <v>209348000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9498755</v>
       </c>
@@ -2075,7 +2143,7 @@
         <v>209462000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9081693</v>
       </c>
@@ -2086,7 +2154,7 @@
         <v>209873000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9116113</v>
       </c>
@@ -2097,7 +2165,7 @@
         <v>209513000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9135884</v>
       </c>
@@ -2108,7 +2176,7 @@
         <v>224477000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9969730</v>
       </c>
@@ -2119,7 +2187,7 @@
         <v>210012000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9498767</v>
       </c>
@@ -2130,7 +2198,7 @@
         <v>209651000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9390367</v>
       </c>
@@ -2141,7 +2209,7 @@
         <v>224637000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9243423</v>
       </c>
@@ -2152,7 +2220,7 @@
         <v>209106000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9316646</v>
       </c>
@@ -2163,7 +2231,7 @@
         <v>224264000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9465239</v>
       </c>
@@ -2174,7 +2242,7 @@
         <v>224593000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8208763</v>
       </c>
@@ -2185,7 +2253,7 @@
         <v>209678000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9262065</v>
       </c>
@@ -2196,7 +2264,7 @@
         <v>224247000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7827225</v>
       </c>
@@ -2207,7 +2275,7 @@
         <v>210976000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9832119</v>
       </c>
@@ -2218,7 +2286,7 @@
         <v>210329000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9261542</v>
       </c>
@@ -2229,7 +2297,7 @@
         <v>209115000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7315337</v>
       </c>
@@ -2240,7 +2308,7 @@
         <v>224810000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8618138</v>
       </c>
@@ -2251,7 +2319,7 @@
         <v>247054700</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7817830</v>
       </c>
@@ -2262,7 +2330,7 @@
         <v>247054100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7351264</v>
       </c>
@@ -2273,7 +2341,7 @@
         <v>247054800</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9539042</v>
       </c>
@@ -2284,7 +2352,7 @@
         <v>247295400</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7717327</v>
       </c>
@@ -2295,7 +2363,7 @@
         <v>247010100</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9819806</v>
       </c>
@@ -2306,7 +2374,7 @@
         <v>247378900</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8318568</v>
       </c>
@@ -2317,7 +2385,7 @@
         <v>247054200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9048483</v>
       </c>
@@ -2328,7 +2396,7 @@
         <v>247054900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7320693</v>
       </c>
@@ -2339,7 +2407,7 @@
         <v>247042100</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7325095</v>
       </c>
@@ -2350,7 +2418,7 @@
         <v>247315500</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9031997</v>
       </c>
@@ -2361,7 +2429,7 @@
         <v>247445400</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>9945538</v>
       </c>
@@ -2372,7 +2440,7 @@
         <v>247443700</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7351032</v>
       </c>
@@ -2383,7 +2451,7 @@
         <v>247052700</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9977206</v>
       </c>
@@ -2394,7 +2462,7 @@
         <v>247485900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8705709</v>
       </c>
@@ -2405,7 +2473,7 @@
         <v>247387300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7717250</v>
       </c>
@@ -2416,7 +2484,7 @@
         <v>247045300</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8618126</v>
       </c>
@@ -2427,7 +2495,7 @@
         <v>247054300</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8917338</v>
       </c>
@@ -2438,7 +2506,7 @@
         <v>247455000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9051442</v>
       </c>
@@ -2449,7 +2517,7 @@
         <v>247107100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7817828</v>
       </c>
@@ -2460,7 +2528,7 @@
         <v>247054500</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7804209</v>
       </c>
@@ -2471,7 +2539,7 @@
         <v>247045400</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7929126</v>
       </c>
@@ -2482,7 +2550,7 @@
         <v>247054600</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>9048495</v>
       </c>
@@ -2493,7 +2561,7 @@
         <v>247054400</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>9135963</v>
       </c>
@@ -2504,7 +2572,7 @@
         <v>247061600</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8306498</v>
       </c>
@@ -2515,7 +2583,7 @@
         <v>247356500</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9203174</v>
       </c>
@@ -2526,7 +2594,7 @@
         <v>247013400</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9035101</v>
       </c>
@@ -2537,7 +2605,7 @@
         <v>247183200</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>9086590</v>
       </c>
@@ -2548,7 +2616,7 @@
         <v>247178700</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>9208083</v>
       </c>
@@ -2559,7 +2627,7 @@
         <v>247089500</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>9203186</v>
       </c>
@@ -2570,7 +2638,7 @@
         <v>247036100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8320573</v>
       </c>
@@ -2581,7 +2649,7 @@
         <v>247436500</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>8306486</v>
       </c>
@@ -2592,7 +2660,7 @@
         <v>247228600</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8601915</v>
       </c>
@@ -2603,7 +2671,7 @@
         <v>247439700</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>9365398</v>
       </c>
@@ -2614,7 +2682,7 @@
         <v>247385700</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>9706592</v>
       </c>
@@ -2625,7 +2693,7 @@
         <v>247388800</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9458523</v>
       </c>
@@ -2636,7 +2704,7 @@
         <v>247286100</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>9893369</v>
       </c>
@@ -2647,7 +2715,7 @@
         <v>247435900</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9457191</v>
       </c>
@@ -2658,7 +2726,7 @@
         <v>345040011</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9261554</v>
       </c>
@@ -2669,7 +2737,7 @@
         <v>247098200</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>9990193</v>
       </c>
@@ -2680,7 +2748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1028906</v>
       </c>
@@ -2691,7 +2759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>9992622</v>
       </c>
@@ -2702,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9992634</v>
       </c>
@@ -2713,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>9992646</v>
       </c>
@@ -2724,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9992658</v>
       </c>
@@ -2735,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1028865</v>
       </c>
@@ -2746,7 +2814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1028877</v>
       </c>
@@ -2757,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1028889</v>
       </c>
@@ -2768,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1028891</v>
       </c>
@@ -2779,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9506289</v>
       </c>
@@ -2790,7 +2858,7 @@
         <v>225416000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>9349772</v>
       </c>
@@ -2801,7 +2869,7 @@
         <v>224588000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9349758</v>
       </c>
@@ -2812,7 +2880,7 @@
         <v>247178800</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>9227429</v>
       </c>
@@ -2823,7 +2891,7 @@
         <v>247378700</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9351488</v>
       </c>
@@ -2834,7 +2902,7 @@
         <v>247243600</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9204063</v>
       </c>
@@ -2845,7 +2913,7 @@
         <v>247415200</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>9351490</v>
       </c>
@@ -2856,7 +2924,7 @@
         <v>247273800</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>9351476</v>
       </c>
@@ -2867,7 +2935,7 @@
         <v>247219400</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9351505</v>
       </c>
@@ -2878,7 +2946,7 @@
         <v>247286700</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9859600</v>
       </c>
@@ -2889,7 +2957,7 @@
         <v>247384100</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9859545</v>
       </c>
@@ -2900,7 +2968,7 @@
         <v>247383400</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9859571</v>
       </c>
@@ -2911,7 +2979,7 @@
         <v>247383700</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9859612</v>
       </c>
@@ -2922,7 +2990,7 @@
         <v>247384200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9859557</v>
       </c>
@@ -2933,7 +3001,7 @@
         <v>247383500</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9859583</v>
       </c>
@@ -2944,7 +3012,7 @@
         <v>247383800</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9859595</v>
       </c>
@@ -2955,7 +3023,7 @@
         <v>247383900</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9985540</v>
       </c>
@@ -2966,7 +3034,7 @@
         <v>247453600</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9985538</v>
       </c>
@@ -2977,7 +3045,7 @@
         <v>247453500</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9859569</v>
       </c>
@@ -2988,7 +3056,7 @@
         <v>247383600</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9859533</v>
       </c>
@@ -2999,7 +3067,7 @@
         <v>247383300</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9465540</v>
       </c>
@@ -3010,7 +3078,7 @@
         <v>247296500</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>9471082</v>
       </c>
@@ -3021,7 +3089,7 @@
         <v>247320400</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>9471068</v>
       </c>
@@ -3032,7 +3100,7 @@
         <v>247318900</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9458951</v>
       </c>
@@ -3043,7 +3111,7 @@
         <v>247293800</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9165310</v>
       </c>
@@ -3054,7 +3122,7 @@
         <v>229490000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>9471070</v>
       </c>
@@ -3065,7 +3133,7 @@
         <v>247319800</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>9465514</v>
       </c>
@@ -3076,7 +3144,7 @@
         <v>247294700</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>9465538</v>
       </c>
@@ -3087,7 +3155,7 @@
         <v>247241800</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>9471056</v>
       </c>
@@ -3098,7 +3166,7 @@
         <v>247318300</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>9465526</v>
       </c>
@@ -3109,7 +3177,7 @@
         <v>247241900</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>9175494</v>
       </c>
@@ -3120,7 +3188,7 @@
         <v>229706000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>9468906</v>
       </c>
@@ -3131,7 +3199,7 @@
         <v>249146000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>9468918</v>
       </c>
@@ -3142,7 +3210,7 @@
         <v>249281000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>9465552</v>
       </c>
@@ -3153,7 +3221,7 @@
         <v>247297200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>9198939</v>
       </c>
@@ -3164,7 +3232,7 @@
         <v>247362700</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>9319454</v>
       </c>
@@ -3175,7 +3243,7 @@
         <v>247415800</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9287584</v>
       </c>
@@ -3186,7 +3254,7 @@
         <v>247105900</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>9143702</v>
       </c>
@@ -3197,7 +3265,7 @@
         <v>247290000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9680712</v>
       </c>
@@ -3208,7 +3276,7 @@
         <v>247341700</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>9246607</v>
       </c>
@@ -3219,7 +3287,7 @@
         <v>247098900</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>9343156</v>
       </c>
@@ -3230,7 +3298,7 @@
         <v>247233800</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>9287417</v>
       </c>
@@ -3241,7 +3309,7 @@
         <v>247116600</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>9784037</v>
       </c>
@@ -3252,7 +3320,7 @@
         <v>247375700</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>9343170</v>
       </c>
@@ -3263,7 +3331,7 @@
         <v>247275400</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>9253210</v>
       </c>
@@ -3274,7 +3342,7 @@
         <v>247100300</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>9796377</v>
       </c>
@@ -3285,7 +3353,7 @@
         <v>247441300</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>9377482</v>
       </c>
@@ -3296,7 +3364,7 @@
         <v>247289800</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>9318527</v>
       </c>
@@ -3307,7 +3375,7 @@
         <v>247217500</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9437921</v>
       </c>
@@ -3318,7 +3386,7 @@
         <v>247302700</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9465382</v>
       </c>
@@ -3329,7 +3397,7 @@
         <v>247311200</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9672105</v>
       </c>
@@ -3340,7 +3408,7 @@
         <v>247341500</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>9680724</v>
       </c>
@@ -3351,7 +3419,7 @@
         <v>247341900</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>9293272</v>
       </c>
@@ -3362,7 +3430,7 @@
         <v>247186300</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>9220627</v>
       </c>
@@ -3373,7 +3441,7 @@
         <v>247019600</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>9138381</v>
       </c>
@@ -3384,7 +3452,7 @@
         <v>247206000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>9782716</v>
       </c>
@@ -3395,7 +3463,7 @@
         <v>247440400</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>9246592</v>
       </c>
@@ -3406,7 +3474,7 @@
         <v>247078800</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>9437933</v>
       </c>
@@ -3417,7 +3485,7 @@
         <v>247304600</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>9343168</v>
       </c>
@@ -3428,7 +3496,7 @@
         <v>247264700</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>9437919</v>
       </c>
@@ -3439,7 +3507,7 @@
         <v>247293300</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>9784051</v>
       </c>
@@ -3450,7 +3518,7 @@
         <v>247376400</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>9782699</v>
       </c>
@@ -3461,7 +3529,7 @@
         <v>247408300</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>9672088</v>
       </c>
@@ -3472,7 +3540,7 @@
         <v>247341100</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>9724738</v>
       </c>
@@ -3483,7 +3551,7 @@
         <v>247342300</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>9437907</v>
       </c>
@@ -3494,7 +3562,7 @@
         <v>247281100</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>9138393</v>
       </c>
@@ -3505,7 +3573,7 @@
         <v>247305000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>9782687</v>
       </c>
@@ -3516,7 +3584,7 @@
         <v>247405800</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>9782704</v>
       </c>
@@ -3527,7 +3595,7 @@
         <v>247409200</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>9246580</v>
       </c>
@@ -3538,7 +3606,7 @@
         <v>247082500</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>9245598</v>
       </c>
@@ -3549,7 +3617,7 @@
         <v>247065500</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>9253208</v>
       </c>
@@ -3560,7 +3628,7 @@
         <v>247091500</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>9220615</v>
       </c>
@@ -3571,7 +3639,7 @@
         <v>247018700</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9377470</v>
       </c>
@@ -3582,7 +3650,7 @@
         <v>247285500</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>9312092</v>
       </c>
@@ -3593,7 +3661,7 @@
         <v>247186500</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>9437945</v>
       </c>
@@ -3604,7 +3672,7 @@
         <v>247310400</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9227924</v>
       </c>
@@ -3615,7 +3683,7 @@
         <v>247056200</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>9672090</v>
       </c>
@@ -3626,7 +3694,7 @@
         <v>247341300</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>9796365</v>
       </c>
@@ -3637,7 +3705,7 @@
         <v>247441100</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>9465370</v>
       </c>
@@ -3648,7 +3716,7 @@
         <v>247304200</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>9782675</v>
       </c>
@@ -3659,7 +3727,7 @@
         <v>247379500</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>9935040</v>
       </c>
@@ -3670,7 +3738,7 @@
         <v>247451800</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>9935014</v>
       </c>
@@ -3681,7 +3749,7 @@
         <v>247451500</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>9935052</v>
       </c>
@@ -3692,7 +3760,7 @@
         <v>247451900</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>9935064</v>
       </c>
@@ -3703,7 +3771,7 @@
         <v>247452100</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9935026</v>
       </c>
@@ -3714,7 +3782,7 @@
         <v>247451600</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>9935038</v>
       </c>
@@ -3725,7 +3793,7 @@
         <v>247451700</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>9451006</v>
       </c>
@@ -3736,7 +3804,7 @@
         <v>538007768</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>9427952</v>
       </c>
@@ -3747,7 +3815,7 @@
         <v>538090644</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>9427964</v>
       </c>
@@ -3758,7 +3826,7 @@
         <v>218562000</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>9138410</v>
       </c>
@@ -3769,7 +3837,7 @@
         <v>247273000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>9138422</v>
       </c>
@@ -3780,7 +3848,7 @@
         <v>247310000</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>9992660</v>
       </c>
@@ -3791,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>9992672</v>
       </c>
@@ -3802,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9992684</v>
       </c>
@@ -3813,7 +3881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9992696</v>
       </c>
@@ -3824,7 +3892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>9992701</v>
       </c>
@@ -3835,7 +3903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1020590</v>
       </c>
@@ -3846,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1020605</v>
       </c>
@@ -3857,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>9304631</v>
       </c>
@@ -3868,7 +3936,7 @@
         <v>247408100</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>9208071</v>
       </c>
@@ -3879,7 +3947,7 @@
         <v>247131600</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>9285873</v>
       </c>
@@ -3890,7 +3958,7 @@
         <v>247108900</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>9166429</v>
       </c>
@@ -3901,7 +3969,7 @@
         <v>247141000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>9158941</v>
       </c>
@@ -3912,7 +3980,7 @@
         <v>247407000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>9289427</v>
       </c>
@@ -3923,7 +3991,7 @@
         <v>247090500</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5257103</v>
       </c>
@@ -3934,7 +4002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>9431678</v>
       </c>
@@ -3945,7 +4013,7 @@
         <v>247215400</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8013235</v>
       </c>
@@ -3956,7 +4024,7 @@
         <v>247458000</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>7351288</v>
       </c>
@@ -3967,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7512519</v>
       </c>
@@ -3978,7 +4046,7 @@
         <v>247482000</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>9200251</v>
       </c>
@@ -3989,7 +4057,7 @@
         <v>247834000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>7338901</v>
       </c>
@@ -4000,7 +4068,7 @@
         <v>730154332</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9299393</v>
       </c>
@@ -4011,7 +4079,7 @@
         <v>247132400</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>7911533</v>
       </c>
@@ -4022,7 +4090,7 @@
         <v>247374100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>5423867</v>
       </c>
@@ -4033,7 +4101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>7361312</v>
       </c>
@@ -4044,7 +4112,7 @@
         <v>247162200</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>9837509</v>
       </c>
@@ -4055,7 +4123,7 @@
         <v>247482700</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>7358755</v>
       </c>
@@ -4066,7 +4134,7 @@
         <v>247372400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>9837511</v>
       </c>
@@ -4077,7 +4145,7 @@
         <v>247484300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>7350090</v>
       </c>
@@ -4088,7 +4156,7 @@
         <v>247373600</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8414582</v>
       </c>
@@ -4099,7 +4167,7 @@
         <v>247385600</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>7361324</v>
       </c>
@@ -4110,7 +4178,7 @@
         <v>247185400</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9221310</v>
       </c>
@@ -4121,7 +4189,7 @@
         <v>247186700</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>9214367</v>
       </c>
@@ -4132,7 +4200,7 @@
         <v>247015400</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>8020642</v>
       </c>
@@ -4143,7 +4211,7 @@
         <v>247369700</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>8424733</v>
       </c>
@@ -4154,7 +4222,7 @@
         <v>247315000</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>8718304</v>
       </c>
@@ -4165,7 +4233,7 @@
         <v>247104800</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>9402172</v>
       </c>
@@ -4176,7 +4244,7 @@
         <v>247288600</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>7020334</v>
       </c>
@@ -4187,7 +4255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>9855719</v>
       </c>
@@ -4198,7 +4266,7 @@
         <v>247393400</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>7512507</v>
       </c>
@@ -4209,7 +4277,7 @@
         <v>247117000</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>9276420</v>
       </c>
@@ -4220,7 +4288,7 @@
         <v>247132200</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>9229740</v>
       </c>
@@ -4231,7 +4299,7 @@
         <v>247171200</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>7602120</v>
       </c>
@@ -4242,7 +4310,7 @@
         <v>209510000</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>9038957</v>
       </c>
@@ -4253,7 +4321,7 @@
         <v>247058700</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>8911865</v>
       </c>
@@ -4264,7 +4332,7 @@
         <v>247058800</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>8708402</v>
       </c>
@@ -4275,7 +4343,7 @@
         <v>247037900</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>8911853</v>
       </c>
@@ -4286,7 +4354,7 @@
         <v>247058900</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>9059171</v>
       </c>
@@ -4297,7 +4365,7 @@
         <v>247362200</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8807492</v>
       </c>
@@ -4308,7 +4376,7 @@
         <v>247058600</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>9305922</v>
       </c>
@@ -4319,7 +4387,7 @@
         <v>247128500</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1091214</v>
       </c>
@@ -4330,7 +4398,7 @@
         <v>247417700</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1040887</v>
       </c>
@@ -4341,7 +4409,7 @@
         <v>247446200</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>9166182</v>
       </c>
@@ -4352,7 +4420,7 @@
         <v>247388000</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>7918165</v>
       </c>
@@ -4363,7 +4431,7 @@
         <v>247165400</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>9086332</v>
       </c>
@@ -4374,7 +4442,7 @@
         <v>247097400</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>7717298</v>
       </c>
@@ -4385,7 +4453,7 @@
         <v>247042900</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>9263655</v>
       </c>
@@ -4396,7 +4464,7 @@
         <v>247086200</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>7351331</v>
       </c>
@@ -4407,7 +4475,7 @@
         <v>247044100</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>7717303</v>
       </c>
@@ -4418,7 +4486,7 @@
         <v>247048600</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>9309875</v>
       </c>
@@ -4429,7 +4497,7 @@
         <v>247151800</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>7717315</v>
       </c>
@@ -4440,7 +4508,7 @@
         <v>247047300</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>9166170</v>
       </c>
@@ -4451,7 +4519,7 @@
         <v>247300000</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>9166209</v>
       </c>
@@ -4462,7 +4530,7 @@
         <v>247546000</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8868472</v>
       </c>
@@ -4473,7 +4541,7 @@
         <v>247097500</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>9166194</v>
       </c>
@@ -4484,7 +4552,7 @@
         <v>247492000</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>9222534</v>
       </c>
@@ -4495,7 +4563,7 @@
         <v>247057100</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>9222522</v>
       </c>
@@ -4506,7 +4574,7 @@
         <v>247034200</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>7717274</v>
       </c>
@@ -4517,7 +4585,7 @@
         <v>247047200</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>9198989</v>
       </c>
@@ -4528,7 +4596,7 @@
         <v>255805939</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>9144744</v>
       </c>
@@ -4539,7 +4607,7 @@
         <v>247442000</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>9144732</v>
       </c>
@@ -4550,7 +4618,7 @@
         <v>247441000</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>9217125</v>
       </c>
@@ -4561,7 +4629,7 @@
         <v>224600000</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>9137997</v>
       </c>
@@ -4572,7 +4640,7 @@
         <v>224729000</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>9243447</v>
       </c>
@@ -4583,7 +4651,7 @@
         <v>210772000</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9243435</v>
       </c>
@@ -4594,7 +4662,7 @@
         <v>247391700</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>7602089</v>
       </c>
@@ -4605,7 +4673,7 @@
         <v>247312600</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9059107</v>
       </c>
@@ -4616,7 +4684,7 @@
         <v>247324300</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>9144811</v>
       </c>
@@ -4627,7 +4695,7 @@
         <v>247343200</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8802791</v>
       </c>
@@ -4638,7 +4706,7 @@
         <v>247369900</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>9079999</v>
       </c>
@@ -4649,7 +4717,7 @@
         <v>622135002</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>9216171</v>
       </c>
@@ -4660,7 +4728,7 @@
         <v>210836000</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>7803190</v>
       </c>
@@ -4671,7 +4739,7 @@
         <v>242579300</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>7719430</v>
       </c>
@@ -4682,7 +4750,7 @@
         <v>242228000</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>9141845</v>
       </c>
@@ -4693,7 +4761,7 @@
         <v>241420000</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>7901760</v>
       </c>
@@ -4704,7 +4772,7 @@
         <v>209649000</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9670585</v>
       </c>
@@ -4715,7 +4783,7 @@
         <v>215809000</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>9670597</v>
       </c>
@@ -4726,7 +4794,7 @@
         <v>215800000</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>9670602</v>
       </c>
@@ -4737,7 +4805,7 @@
         <v>215804000</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>9670573</v>
       </c>
@@ -4748,7 +4816,7 @@
         <v>215797000</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>9670614</v>
       </c>
@@ -4759,7 +4827,7 @@
         <v>215801000</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>9130949</v>
       </c>
@@ -4770,7 +4838,7 @@
         <v>215751000</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>9198135</v>
       </c>
@@ -4781,7 +4849,7 @@
         <v>215949000</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>9130951</v>
       </c>
@@ -4792,7 +4860,7 @@
         <v>215665000</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>9198123</v>
       </c>
@@ -4803,7 +4871,7 @@
         <v>215664000</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>9006253</v>
       </c>
@@ -4814,7 +4882,7 @@
         <v>227273000</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>9119385</v>
       </c>
@@ -4825,7 +4893,7 @@
         <v>770576231</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>9281671</v>
       </c>
@@ -4836,7 +4904,7 @@
         <v>311001249</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>7606671</v>
       </c>
@@ -4847,7 +4915,7 @@
         <v>247221400</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>9869722</v>
       </c>
@@ -4858,7 +4926,7 @@
         <v>247432300</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>7928811</v>
       </c>
@@ -4869,7 +4937,7 @@
         <v>210556000</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>9263370</v>
       </c>
@@ -4880,7 +4948,7 @@
         <v>224498000</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>9186429</v>
       </c>
@@ -4891,7 +4959,7 @@
         <v>255805606</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>9216585</v>
       </c>
@@ -4902,7 +4970,7 @@
         <v>224675000</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>9039391</v>
       </c>
@@ -4913,7 +4981,7 @@
         <v>224647000</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>9204362</v>
       </c>
@@ -4924,7 +4992,7 @@
         <v>224901000</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>9206700</v>
       </c>
@@ -4935,7 +5003,7 @@
         <v>224898000</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>9399325</v>
       </c>
@@ -4946,7 +5014,7 @@
         <v>225430000</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>9891749</v>
       </c>
@@ -4957,7 +5025,7 @@
         <v>228426700</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>9211511</v>
       </c>
@@ -4968,7 +5036,7 @@
         <v>226269000</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>9230476</v>
       </c>
@@ -4979,7 +5047,7 @@
         <v>226242000</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>9161948</v>
       </c>
@@ -4990,7 +5058,7 @@
         <v>226280000</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>8705395</v>
       </c>
@@ -5001,7 +5069,7 @@
         <v>227187000</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>8911516</v>
       </c>
@@ -5012,7 +5080,7 @@
         <v>227182000</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>9050826</v>
       </c>
@@ -5023,7 +5091,7 @@
         <v>227184000</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>9247510</v>
       </c>
@@ -5034,7 +5102,7 @@
         <v>228081000</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>9138006</v>
       </c>
@@ -5045,7 +5113,7 @@
         <v>228358800</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>9207998</v>
       </c>
@@ -5056,7 +5124,7 @@
         <v>672747000</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>9185396</v>
       </c>
@@ -5067,7 +5135,7 @@
         <v>672269000</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>9208007</v>
       </c>
@@ -5078,7 +5146,7 @@
         <v>672704000</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>9869954</v>
       </c>
@@ -5089,7 +5157,7 @@
         <v>563183100</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>9142461</v>
       </c>
@@ -5100,7 +5168,7 @@
         <v>672247000</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>9598579</v>
       </c>
@@ -5111,7 +5179,7 @@
         <v>672748000</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>9142459</v>
       </c>
@@ -5122,7 +5190,7 @@
         <v>672248000</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>9150999</v>
       </c>
@@ -5133,7 +5201,7 @@
         <v>232059657</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>9132014</v>
       </c>
@@ -5144,7 +5212,7 @@
         <v>210707000</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>9112765</v>
       </c>
@@ -5155,7 +5223,7 @@
         <v>209405000</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>9112777</v>
       </c>
@@ -5166,7 +5234,7 @@
         <v>242127100</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>9722819</v>
       </c>
@@ -5177,7 +5245,7 @@
         <v>210287000</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>9174323</v>
       </c>
@@ -5188,7 +5256,7 @@
         <v>212561000</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>8917390</v>
       </c>
@@ -5199,7 +5267,7 @@
         <v>277291000</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>9183790</v>
       </c>
@@ -5210,7 +5278,7 @@
         <v>209188000</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>9281334</v>
       </c>
@@ -5221,7 +5289,7 @@
         <v>224145000</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>9623037</v>
       </c>
@@ -5232,7 +5300,7 @@
         <v>605056220</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>9827889</v>
       </c>
@@ -5243,7 +5311,7 @@
         <v>605056210</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>9265421</v>
       </c>
@@ -5254,7 +5322,7 @@
         <v>605246160</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>9623049</v>
       </c>
@@ -5265,7 +5333,7 @@
         <v>605046150</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>9109768</v>
       </c>
@@ -5276,7 +5344,7 @@
         <v>605026190</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>9265419</v>
       </c>
@@ -5287,7 +5355,7 @@
         <v>605016420</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>8902345</v>
       </c>
@@ -5298,7 +5366,7 @@
         <v>209410000</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>9825295</v>
       </c>
@@ -5309,7 +5377,7 @@
         <v>209144000</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>9200225</v>
       </c>
@@ -5320,7 +5388,7 @@
         <v>209899000</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>9008794</v>
       </c>
@@ -5331,7 +5399,7 @@
         <v>209702000</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>9198551</v>
       </c>
@@ -5342,7 +5410,7 @@
         <v>228470700</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>9176060</v>
       </c>
@@ -5353,7 +5421,7 @@
         <v>210052000</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>9321823</v>
       </c>
@@ -5364,7 +5432,7 @@
         <v>209392000</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>9949601</v>
       </c>
@@ -5375,7 +5443,7 @@
         <v>211887350</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>8358867</v>
       </c>
@@ -5386,7 +5454,7 @@
         <v>211269690</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>8358922</v>
       </c>
@@ -5397,7 +5465,7 @@
         <v>211810060</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>9197533</v>
       </c>
@@ -5408,7 +5476,7 @@
         <v>255805834</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>9143441</v>
       </c>
@@ -5419,7 +5487,7 @@
         <v>247279000</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>9184419</v>
       </c>
@@ -5430,7 +5498,7 @@
         <v>247351100</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>9100267</v>
       </c>
@@ -5441,7 +5509,7 @@
         <v>247094000</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>8506311</v>
       </c>
@@ -5452,7 +5520,7 @@
         <v>247392600</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>8503797</v>
       </c>
@@ -5463,7 +5531,7 @@
         <v>247435800</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>8712520</v>
       </c>
@@ -5474,7 +5542,7 @@
         <v>247163100</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>9305269</v>
       </c>
@@ -5485,7 +5553,7 @@
         <v>247130700</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>7826790</v>
       </c>
@@ -5496,7 +5564,7 @@
         <v>247237700</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>8416308</v>
       </c>
@@ -5507,7 +5575,7 @@
         <v>247334600</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>8712518</v>
       </c>
@@ -5518,7 +5586,7 @@
         <v>247163900</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>9948607</v>
       </c>
@@ -5529,7 +5597,7 @@
         <v>352005074</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>9948592</v>
       </c>
@@ -5540,7 +5608,7 @@
         <v>247486400</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>9435454</v>
       </c>
@@ -5551,7 +5619,7 @@
         <v>247265800</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>9293404</v>
       </c>
@@ -5562,7 +5630,7 @@
         <v>247106500</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>9198927</v>
       </c>
@@ -5573,7 +5641,7 @@
         <v>247438100</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>9980057</v>
       </c>
@@ -5584,7 +5652,7 @@
         <v>352005341</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>9980069</v>
       </c>
@@ -5595,7 +5663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>9214288</v>
       </c>
@@ -5606,7 +5674,7 @@
         <v>247083700</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>9015735</v>
       </c>
@@ -5617,7 +5685,7 @@
         <v>247142000</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>9104835</v>
       </c>
@@ -5628,7 +5696,7 @@
         <v>247362600</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>9015747</v>
       </c>
@@ -5639,7 +5707,7 @@
         <v>247136000</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>9350707</v>
       </c>
@@ -5650,7 +5718,7 @@
         <v>247230200</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>9784049</v>
       </c>
@@ -5661,7 +5729,7 @@
         <v>247376300</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>9216169</v>
       </c>
@@ -5672,7 +5740,7 @@
         <v>242911000</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>7516773</v>
       </c>
@@ -5683,7 +5751,7 @@
         <v>210652000</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>8512152</v>
       </c>
@@ -5694,7 +5762,7 @@
         <v>209011000</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>9875537</v>
       </c>
@@ -5705,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>9830111</v>
       </c>
@@ -5716,7 +5784,7 @@
         <v>224781000</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>9916264</v>
       </c>
@@ -5727,7 +5795,7 @@
         <v>224984000</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>9360506</v>
       </c>
@@ -5738,7 +5806,7 @@
         <v>224957000</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>9281322</v>
       </c>
@@ -5749,7 +5817,7 @@
         <v>224093000</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>9081588</v>
       </c>
@@ -5760,7 +5828,7 @@
         <v>224761000</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>9221346</v>
       </c>
@@ -5771,7 +5839,7 @@
         <v>224753000</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>9088859</v>
       </c>
@@ -5782,7 +5850,7 @@
         <v>226245000</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>9506291</v>
       </c>
@@ -5793,7 +5861,7 @@
         <v>225423000</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>9268411</v>
       </c>
@@ -5804,7 +5872,7 @@
         <v>224127000</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>9294226</v>
       </c>
@@ -5815,7 +5883,7 @@
         <v>224836000</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>9050618</v>
       </c>
@@ -5826,7 +5894,7 @@
         <v>227202000</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>9526332</v>
       </c>
@@ -5837,7 +5905,7 @@
         <v>228009700</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>9916678</v>
       </c>
@@ -5848,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>8869581</v>
       </c>
@@ -5859,7 +5927,7 @@
         <v>770576105</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>9610028</v>
       </c>
@@ -5870,7 +5938,7 @@
         <v>770576272</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>9106118</v>
       </c>
@@ -5881,7 +5949,7 @@
         <v>701006018</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>9154684</v>
       </c>
@@ -5892,7 +5960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>9799977</v>
       </c>
@@ -5903,7 +5971,7 @@
         <v>247386800</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>9544176</v>
       </c>
@@ -5914,7 +5982,7 @@
         <v>247254700</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>8712623</v>
       </c>
@@ -5925,7 +5993,7 @@
         <v>247044200</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>8324971</v>
       </c>
@@ -5936,7 +6004,7 @@
         <v>247153700</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>6519041</v>
       </c>
@@ -5947,7 +6015,7 @@
         <v>247071700</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>8809074</v>
       </c>
@@ -5958,7 +6026,7 @@
         <v>247043100</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>7826788</v>
       </c>
@@ -5969,7 +6037,7 @@
         <v>209077000</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7807744</v>
       </c>
@@ -5980,7 +6048,7 @@
         <v>212224000</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>9087726</v>
       </c>
@@ -5991,7 +6059,7 @@
         <v>209481000</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>9227900</v>
       </c>
@@ -6002,7 +6070,7 @@
         <v>247039400</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>9227912</v>
       </c>
@@ -6013,7 +6081,7 @@
         <v>247039300</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>9247924</v>
       </c>
@@ -6024,7 +6092,7 @@
         <v>247080200</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>9247936</v>
       </c>
@@ -6035,7 +6103,7 @@
         <v>247086800</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>9237242</v>
       </c>
@@ -6046,7 +6114,7 @@
         <v>311000671</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>7615414</v>
       </c>
@@ -6057,7 +6125,7 @@
         <v>247279300</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>9080015</v>
       </c>
@@ -6068,7 +6136,7 @@
         <v>224549000</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>9150975</v>
       </c>
@@ -6079,7 +6147,7 @@
         <v>224200000</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>9265794</v>
       </c>
@@ -6090,7 +6158,7 @@
         <v>224201000</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>8615241</v>
       </c>
@@ -6101,7 +6169,7 @@
         <v>224125620</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>9809631</v>
       </c>
@@ -6112,7 +6180,7 @@
         <v>224686000</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>9265809</v>
       </c>
@@ -6123,7 +6191,7 @@
         <v>224203000</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>8615253</v>
       </c>
@@ -6134,7 +6202,7 @@
         <v>224008000</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>7626176</v>
       </c>
@@ -6145,7 +6213,7 @@
         <v>225307000</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>9822449</v>
       </c>
@@ -6156,7 +6224,7 @@
         <v>225985592</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>8351869</v>
       </c>
@@ -6167,7 +6235,7 @@
         <v>225342000</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>9904962</v>
       </c>
@@ -6178,7 +6246,7 @@
         <v>224202000</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>8325482</v>
       </c>
@@ -6189,7 +6257,7 @@
         <v>224491000</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>9136034</v>
       </c>
@@ -6200,7 +6268,7 @@
         <v>228393700</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>8708593</v>
       </c>
@@ -6211,7 +6279,7 @@
         <v>247041800</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>8708608</v>
       </c>
@@ -6222,7 +6290,7 @@
         <v>247041700</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>9157296</v>
       </c>
@@ -6233,7 +6301,7 @@
         <v>247418000</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>9011014</v>
       </c>
@@ -6244,7 +6312,7 @@
         <v>247342000</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>8407450</v>
       </c>
@@ -6255,7 +6323,7 @@
         <v>247003700</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>7717339</v>
       </c>
@@ -6266,7 +6334,7 @@
         <v>247000300</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>8411293</v>
       </c>
@@ -6277,7 +6345,7 @@
         <v>247003800</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>9309904</v>
       </c>
@@ -6288,7 +6356,7 @@
         <v>247165800</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>7606657</v>
       </c>
@@ -6299,7 +6367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>9160774</v>
       </c>
@@ -6310,7 +6378,7 @@
         <v>231852000</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>9198977</v>
       </c>
@@ -6321,7 +6389,7 @@
         <v>231887000</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>9121998</v>
       </c>
@@ -6332,7 +6400,7 @@
         <v>231002000</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>9227390</v>
       </c>
@@ -6343,7 +6411,7 @@
         <v>231200000</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1052995</v>
       </c>
@@ -6354,7 +6422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>7813949</v>
       </c>
@@ -6365,7 +6433,7 @@
         <v>374081000</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>7037806</v>
       </c>
@@ -6376,7 +6444,7 @@
         <v>373339000</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>8402357</v>
       </c>
@@ -6387,7 +6455,7 @@
         <v>247041900</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>9304954</v>
       </c>
@@ -6398,7 +6466,7 @@
         <v>247138800</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>8706727</v>
       </c>
@@ -6409,7 +6477,7 @@
         <v>247044300</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>7717353</v>
       </c>
@@ -6420,7 +6488,7 @@
         <v>247046600</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>7717341</v>
       </c>
@@ -6431,7 +6499,7 @@
         <v>247046800</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>9310836</v>
       </c>
@@ -6442,7 +6510,7 @@
         <v>247121100</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>8954415</v>
       </c>
@@ -6453,7 +6521,7 @@
         <v>247373200</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>8706739</v>
       </c>
@@ -6464,7 +6532,7 @@
         <v>247046700</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>9333448</v>
       </c>
@@ -6475,7 +6543,7 @@
         <v>215883000</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>9223784</v>
       </c>
@@ -6486,7 +6554,7 @@
         <v>229455000</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>8358805</v>
       </c>
@@ -6497,7 +6565,7 @@
         <v>211269660</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>8358855</v>
       </c>
@@ -6508,7 +6576,7 @@
         <v>211696680</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>8358910</v>
       </c>
@@ -6519,7 +6587,7 @@
         <v>211156470</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>8000226</v>
       </c>
@@ -6530,7 +6598,7 @@
         <v>210277000</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>393</v>
       </c>
@@ -6538,7 +6606,7 @@
         <v>211269680</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>9006253</v>
       </c>
@@ -6546,6 +6614,1569 @@
         <v>425</v>
       </c>
       <c r="C424">
+        <v>227273000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="8">
+        <v>8902345</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C425" s="5">
+        <v>209410000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="8">
+        <v>9243435</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C426" s="5">
+        <v>247391700</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="8">
+        <v>7602089</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" s="5">
+        <v>247312600</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="8">
+        <v>9059107</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" s="5">
+        <v>247324300</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="8">
+        <v>7807744</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C429" s="5">
+        <v>212224000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="8">
+        <v>9087726</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C430" s="5">
+        <v>209481000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="8">
+        <v>8601915</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C431" s="5">
+        <v>247439700</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="8">
+        <v>7349039</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C432" s="5">
+        <v>247552000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="8">
+        <v>8306498</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C433" s="5">
+        <v>247356500</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="8">
+        <v>9203174</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C434" s="5">
+        <v>247013400</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="8">
+        <v>9035101</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C435" s="5">
+        <v>247183200</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="8">
+        <v>9086590</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C436" s="5">
+        <v>247178700</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="8">
+        <v>9208083</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C437" s="5">
+        <v>247089500</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="8">
+        <v>9203186</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C438" s="5">
+        <v>247036100</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="8">
+        <v>8320573</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C439" s="5">
+        <v>247436500</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="8">
+        <v>8306486</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C440" s="5">
+        <v>247228600</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="8">
+        <v>9365398</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C441" s="5">
+        <v>247385700</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="8">
+        <v>7360617</v>
+      </c>
+      <c r="B442" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C442" s="5">
+        <v>247392000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="8">
+        <v>9869722</v>
+      </c>
+      <c r="B443" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C443" s="5">
+        <v>247432300</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="8">
+        <v>9143441</v>
+      </c>
+      <c r="B444" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C444" s="5">
+        <v>247279000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="8">
+        <v>9184419</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C445" s="5">
+        <v>247351100</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="8">
+        <v>9100267</v>
+      </c>
+      <c r="B446" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C446" s="5">
+        <v>247094000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="8">
+        <v>8506311</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C447" s="5">
+        <v>247392600</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="8">
+        <v>8503797</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C448" s="5">
+        <v>247435800</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="8">
+        <v>8501957</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C449" s="5">
+        <v>247435700</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="8">
+        <v>8712520</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C450" s="5">
+        <v>247163100</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="8">
+        <v>7826790</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C451" s="5">
+        <v>247237700</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="8">
+        <v>8416308</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C452" s="5">
+        <v>247334600</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="8">
+        <v>9893369</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C453" s="5">
+        <v>247435900</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="8">
+        <v>8712518</v>
+      </c>
+      <c r="B454" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C454" s="5">
+        <v>247163900</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="8">
+        <v>9435454</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C455" s="5">
+        <v>247265800</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="8">
+        <v>9198927</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C456" s="5">
+        <v>247438100</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="8">
+        <v>9214276</v>
+      </c>
+      <c r="B457" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C457" s="5">
+        <v>247056100</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="8">
+        <v>9214288</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C458" s="5">
+        <v>247083700</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="8">
+        <v>9015735</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C459" s="5">
+        <v>247142000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="8">
+        <v>9015747</v>
+      </c>
+      <c r="B460" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C460" s="5">
+        <v>247136000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="8">
+        <v>9350707</v>
+      </c>
+      <c r="B461" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C461" s="5">
+        <v>247230200</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="8">
+        <v>9197533</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C462" s="5">
+        <v>255805834</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="8">
+        <v>9104835</v>
+      </c>
+      <c r="B463" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C463" s="5">
+        <v>247362600</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="8">
+        <v>9458535</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C464" s="5">
+        <v>277466000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="8">
+        <v>9010151</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C465" s="5">
+        <v>224509000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="8">
+        <v>9506289</v>
+      </c>
+      <c r="B466" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C466" s="5">
+        <v>225416000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="8">
+        <v>9217125</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C467" s="5">
+        <v>224600000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="8">
+        <v>9398890</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C468" s="5">
+        <v>224692000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="8">
+        <v>9349772</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C469" s="5">
+        <v>224588000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="8">
+        <v>9281334</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C470" s="5">
+        <v>224145000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="8">
+        <v>9506291</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C471" s="5">
+        <v>225423000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="8">
+        <v>8512152</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C472" s="5">
+        <v>209011000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="8">
+        <v>9441130</v>
+      </c>
+      <c r="B473" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C473" s="5">
+        <v>224402000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="8">
+        <v>9170183</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C474" s="5">
+        <v>224704000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="8">
+        <v>9441142</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C475" s="5">
+        <v>210567000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="8">
+        <v>9188881</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C476" s="5">
+        <v>209122000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="8">
+        <v>9019054</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C477" s="5">
+        <v>210133000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="8">
+        <v>9498743</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C478" s="5">
+        <v>209348000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="8">
+        <v>9498755</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C479" s="5">
+        <v>209462000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="8">
+        <v>9081693</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C480" s="5">
+        <v>209873000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="8">
+        <v>9135884</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C481" s="5">
+        <v>224477000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="8">
+        <v>9498767</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C482" s="5">
+        <v>209651000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="8">
+        <v>9390367</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C483" s="5">
+        <v>224637000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="8">
+        <v>9243423</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C484" s="5">
+        <v>209106000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="8">
+        <v>9465239</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C485" s="5">
+        <v>224593000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="8">
+        <v>8208763</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C486" s="5">
+        <v>209678000</v>
+      </c>
+      <c r="E486" s="11"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="8">
+        <v>9262065</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C487" s="5">
+        <v>224247000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="8">
+        <v>7827225</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C488" s="5">
+        <v>210976000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="8">
+        <v>9261542</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C489" s="5">
+        <v>209115000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="8">
+        <v>7315337</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C490" s="5">
+        <v>224810000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="8">
+        <v>9863637</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C491" s="5">
+        <v>210049000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="8">
+        <v>7928811</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C492" s="5">
+        <v>210556000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="8">
+        <v>9216585</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C493" s="5">
+        <v>224675000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="8">
+        <v>9080015</v>
+      </c>
+      <c r="B494" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C494" s="5">
+        <v>224549000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="8">
+        <v>9039391</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C495" s="5">
+        <v>224647000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" s="8">
+        <v>9031997</v>
+      </c>
+      <c r="B496" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C496" s="5">
+        <v>247445400</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="8">
+        <v>9088859</v>
+      </c>
+      <c r="B497" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C497" s="5">
+        <v>226245000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="8">
+        <v>9050618</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C498" s="5">
+        <v>227202000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="8">
+        <v>9136034</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C499" s="5">
+        <v>228393700</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="8">
+        <v>9526332</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C500" s="5">
+        <v>228009700</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="8">
+        <v>9230476</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C501" s="5">
+        <v>226242000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="8">
+        <v>9161948</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C502" s="5">
+        <v>226280000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="8">
+        <v>8705395</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C503" s="5">
+        <v>227187000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="8">
+        <v>8911516</v>
+      </c>
+      <c r="B504" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C504" s="5">
+        <v>227182000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="8">
+        <v>9050826</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C505" s="5">
+        <v>227184000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="8">
+        <v>9891749</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C506" s="5">
+        <v>228426700</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="8">
+        <v>9211511</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C507" s="5">
+        <v>226269000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="8">
+        <v>9247510</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C508" s="5">
+        <v>228081000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="8">
+        <v>9138006</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C509" s="5">
+        <v>228358800</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="8">
+        <v>9185396</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C510" s="5">
+        <v>672269000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="8">
+        <v>9598579</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C511" s="5">
+        <v>672748000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="8">
+        <v>9142459</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C512" s="5">
+        <v>672248000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="8">
+        <v>9261554</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C513" s="5">
+        <v>247098200</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="8">
+        <v>9349758</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C514" s="5">
+        <v>247178800</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="8">
+        <v>9227429</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C515" s="5">
+        <v>247378700</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="8">
+        <v>9351488</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C516" s="5">
+        <v>247243600</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="8">
+        <v>9204063</v>
+      </c>
+      <c r="B517" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C517" s="5">
+        <v>247415200</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="8">
+        <v>9351490</v>
+      </c>
+      <c r="B518" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C518" s="5">
+        <v>247273800</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="8">
+        <v>9351476</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C519" s="5">
+        <v>247219400</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="8">
+        <v>9351505</v>
+      </c>
+      <c r="B520" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C520" s="5">
+        <v>247286700</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="8">
+        <v>9144811</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" s="5">
+        <v>247343200</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="8">
+        <v>9198939</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C522" s="5">
+        <v>247362700</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="8">
+        <v>9287584</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C523" s="5">
+        <v>247105900</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="8">
+        <v>9458523</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C524" s="5">
+        <v>247286100</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="8">
+        <v>9208071</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C525" s="5">
+        <v>247131600</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="8">
+        <v>9299393</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C526" s="5">
+        <v>247132400</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="8">
+        <v>7615414</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C527" s="5">
+        <v>247279300</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="8">
+        <v>7911533</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C528" s="5">
+        <v>247374100</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="8">
+        <v>7361312</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C529" s="5">
+        <v>247162200</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="8">
+        <v>7361324</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C530" s="5">
+        <v>247185400</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="8">
+        <v>9221310</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C531" s="5">
+        <v>247186700</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="8">
+        <v>7360605</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C532" s="5">
+        <v>247664000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="8">
+        <v>9214367</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C533" s="5">
+        <v>247015400</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="8">
+        <v>8020642</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C534" s="5">
+        <v>247369700</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="8">
+        <v>9837509</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C535" s="5">
+        <v>247482700</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="8">
+        <v>9263655</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C536" s="5">
+        <v>247086200</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="8">
+        <v>9222522</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C537" s="5">
+        <v>247034200</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="8">
+        <v>9222534</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C538" s="5">
+        <v>247057100</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="8">
+        <v>9293404</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C539" s="5">
+        <v>247106500</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="8">
+        <v>9144744</v>
+      </c>
+      <c r="B540" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C540" s="5">
+        <v>247442000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="8">
+        <v>9305269</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C541" s="5">
+        <v>247130700</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="8">
+        <v>9144732</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C542" s="5">
+        <v>247441000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="8">
+        <v>9539042</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C543" s="5">
+        <v>247295400</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="8">
+        <v>7037806</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C544" s="5">
+        <v>373339000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" s="8">
+        <v>9243447</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C545" s="5">
+        <v>210772000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" s="8">
+        <v>9198551</v>
+      </c>
+      <c r="B546" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C546" s="5">
+        <v>209936000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" s="8">
+        <v>9174323</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C547" s="5">
+        <v>212561000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" s="8">
+        <v>9112765</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C548" s="5">
+        <v>209405000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="8">
+        <v>9183790</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C549" s="5">
+        <v>265052000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" s="8">
+        <v>9112777</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C550" s="5">
+        <v>242127100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="8">
+        <v>9150999</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C551" s="5">
+        <v>209375000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="8">
+        <v>8414582</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C552" s="5">
+        <v>247385600</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="8">
+        <v>9186429</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C553" s="5">
+        <v>255805606</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="8">
+        <v>9234094</v>
+      </c>
+      <c r="B554" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C554" s="5">
+        <v>563215100</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" s="8">
+        <v>7719430</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C555" s="5">
+        <v>242228000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" s="8">
+        <v>9333448</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C556" s="5">
+        <v>215883000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" s="8">
+        <v>7803190</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557" s="5">
+        <v>242579300</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" s="7">
+        <v>8000226</v>
+      </c>
+      <c r="B558" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C558" s="5">
+        <v>210277000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="7">
+        <v>9223784</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C559" s="5">
+        <v>229455000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="8">
+        <v>9969730</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C560" s="4">
+        <v>210012000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" s="8">
+        <v>9948592</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C561" s="4">
+        <v>247486400</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="7">
+        <v>9137997</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C562" s="4">
+        <v>224729000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="7">
+        <v>9832119</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C563" s="6">
+        <v>210329000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="8">
+        <v>9237242</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C564" s="4">
+        <v>311000671</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="8">
+        <v>7615414</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C565" s="4">
+        <v>247279300</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" s="8">
+        <v>9006253</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C566" s="4">
         <v>227273000</v>
       </c>
     </row>
@@ -6559,26 +8190,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d59a11-dd8d-45df-856c-431101bcea56">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f3488799-45f4-47c8-8be6-57adf0a8ba95" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B53538006E17A46A33349005A9E164B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e6d7b2f48ea509457fadcc10d464797">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3d59a11-dd8d-45df-856c-431101bcea56" xmlns:ns3="f3488799-45f4-47c8-8be6-57adf0a8ba95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30bdd031028bdc83f1987759736e2c97" ns2:_="" ns3:_="">
     <xsd:import namespace="d3d59a11-dd8d-45df-856c-431101bcea56"/>
@@ -6819,10 +8430,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d59a11-dd8d-45df-856c-431101bcea56">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f3488799-45f4-47c8-8be6-57adf0a8ba95" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3BF9A8-63B8-4788-B9B0-975A674CBD3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C83A8D2-6691-4A16-AFB7-B1B7FF980EBD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d3d59a11-dd8d-45df-856c-431101bcea56"/>
+    <ds:schemaRef ds:uri="f3488799-45f4-47c8-8be6-57adf0a8ba95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6845,20 +8487,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C83A8D2-6691-4A16-AFB7-B1B7FF980EBD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3BF9A8-63B8-4788-B9B0-975A674CBD3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d3d59a11-dd8d-45df-856c-431101bcea56"/>
-    <ds:schemaRef ds:uri="f3488799-45f4-47c8-8be6-57adf0a8ba95"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>